--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_6%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -3377,28 +3377,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1344.369720805912</v>
+        <v>1559.649868945871</v>
       </c>
       <c r="AB2" t="n">
-        <v>1839.425961412883</v>
+        <v>2133.981757587811</v>
       </c>
       <c r="AC2" t="n">
-        <v>1663.873729306188</v>
+        <v>1930.317533705838</v>
       </c>
       <c r="AD2" t="n">
-        <v>1344369.720805912</v>
+        <v>1559649.868945871</v>
       </c>
       <c r="AE2" t="n">
-        <v>1839425.961412883</v>
+        <v>2133981.757587811</v>
       </c>
       <c r="AF2" t="n">
         <v>3.558312913564913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>45</v>
+        <v>44.10807291666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1663873.729306188</v>
+        <v>1930317.533705838</v>
       </c>
     </row>
     <row r="3">
@@ -3483,28 +3483,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>704.3287717838882</v>
+        <v>841.3007497610607</v>
       </c>
       <c r="AB3" t="n">
-        <v>963.6936983471201</v>
+        <v>1151.104801392678</v>
       </c>
       <c r="AC3" t="n">
-        <v>871.7201243294707</v>
+        <v>1041.244974733496</v>
       </c>
       <c r="AD3" t="n">
-        <v>704328.7717838882</v>
+        <v>841300.7497610607</v>
       </c>
       <c r="AE3" t="n">
-        <v>963693.6983471201</v>
+        <v>1151104.801392678</v>
       </c>
       <c r="AF3" t="n">
         <v>5.547448404745407e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.29427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>871720.1243294707</v>
+        <v>1041244.974733496</v>
       </c>
     </row>
     <row r="4">
@@ -3589,28 +3589,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>581.7415017760541</v>
+        <v>708.9581128718017</v>
       </c>
       <c r="AB4" t="n">
-        <v>795.9643873537379</v>
+        <v>970.0277670557181</v>
       </c>
       <c r="AC4" t="n">
-        <v>719.9986633677305</v>
+        <v>877.4496784104414</v>
       </c>
       <c r="AD4" t="n">
-        <v>581741.501776054</v>
+        <v>708958.1128718017</v>
       </c>
       <c r="AE4" t="n">
-        <v>795964.387353738</v>
+        <v>970027.7670557181</v>
       </c>
       <c r="AF4" t="n">
         <v>6.303469359822613e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.89583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>719998.6633677304</v>
+        <v>877449.6784104414</v>
       </c>
     </row>
     <row r="5">
@@ -3695,28 +3695,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>534.6423211164474</v>
+        <v>652.0030911341423</v>
       </c>
       <c r="AB5" t="n">
-        <v>731.5212105060624</v>
+        <v>892.0993936360297</v>
       </c>
       <c r="AC5" t="n">
-        <v>661.7058528718302</v>
+        <v>806.9586795767689</v>
       </c>
       <c r="AD5" t="n">
-        <v>534642.3211164474</v>
+        <v>652003.0911341424</v>
       </c>
       <c r="AE5" t="n">
-        <v>731521.2105060624</v>
+        <v>892099.3936360297</v>
       </c>
       <c r="AF5" t="n">
         <v>6.71257891363831e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.37890625</v>
       </c>
       <c r="AH5" t="n">
-        <v>661705.8528718302</v>
+        <v>806958.6795767689</v>
       </c>
     </row>
     <row r="6">
@@ -3801,28 +3801,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>503.9198616279874</v>
+        <v>621.3479514533868</v>
       </c>
       <c r="AB6" t="n">
-        <v>689.4853860546965</v>
+        <v>850.1556791155052</v>
       </c>
       <c r="AC6" t="n">
-        <v>623.6818685084527</v>
+        <v>769.0180143017103</v>
       </c>
       <c r="AD6" t="n">
-        <v>503919.8616279874</v>
+        <v>621347.9514533868</v>
       </c>
       <c r="AE6" t="n">
-        <v>689485.3860546965</v>
+        <v>850155.6791155052</v>
       </c>
       <c r="AF6" t="n">
         <v>6.955344571088164e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.56510416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>623681.8685084527</v>
+        <v>769018.0143017103</v>
       </c>
     </row>
     <row r="7">
@@ -3907,28 +3907,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>476.959108823138</v>
+        <v>594.3530332297564</v>
       </c>
       <c r="AB7" t="n">
-        <v>652.596494642633</v>
+        <v>813.2200410701939</v>
       </c>
       <c r="AC7" t="n">
-        <v>590.3136011188722</v>
+        <v>735.6074617119501</v>
       </c>
       <c r="AD7" t="n">
-        <v>476959.1088231379</v>
+        <v>594353.0332297564</v>
       </c>
       <c r="AE7" t="n">
-        <v>652596.494642633</v>
+        <v>813220.041070194</v>
       </c>
       <c r="AF7" t="n">
         <v>7.140974716308014e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>590313.6011188722</v>
+        <v>735607.4617119501</v>
       </c>
     </row>
     <row r="8">
@@ -4013,28 +4013,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>464.4712419463015</v>
+        <v>572.1449759201333</v>
       </c>
       <c r="AB8" t="n">
-        <v>635.5100442559411</v>
+        <v>782.8339973088263</v>
       </c>
       <c r="AC8" t="n">
-        <v>574.8578575761024</v>
+        <v>708.1214193200871</v>
       </c>
       <c r="AD8" t="n">
-        <v>464471.2419463015</v>
+        <v>572144.9759201333</v>
       </c>
       <c r="AE8" t="n">
-        <v>635510.0442559412</v>
+        <v>782833.9973088263</v>
       </c>
       <c r="AF8" t="n">
         <v>7.266335333859082e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.6015625</v>
       </c>
       <c r="AH8" t="n">
-        <v>574857.8575761025</v>
+        <v>708121.4193200871</v>
       </c>
     </row>
     <row r="9">
@@ -4119,28 +4119,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>454.0862396607142</v>
+        <v>561.6584884080607</v>
       </c>
       <c r="AB9" t="n">
-        <v>621.3008259748348</v>
+        <v>768.4859224636306</v>
       </c>
       <c r="AC9" t="n">
-        <v>562.0047471449817</v>
+        <v>695.1427046004671</v>
       </c>
       <c r="AD9" t="n">
-        <v>454086.2396607142</v>
+        <v>561658.4884080607</v>
       </c>
       <c r="AE9" t="n">
-        <v>621300.8259748347</v>
+        <v>768485.9224636306</v>
       </c>
       <c r="AF9" t="n">
         <v>7.352641297480778e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.34765625</v>
       </c>
       <c r="AH9" t="n">
-        <v>562004.7471449818</v>
+        <v>695142.7046004671</v>
       </c>
     </row>
     <row r="10">
@@ -4225,28 +4225,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>445.4754775117395</v>
+        <v>553.0477262590861</v>
       </c>
       <c r="AB10" t="n">
-        <v>609.5192013225922</v>
+        <v>756.7042978113881</v>
       </c>
       <c r="AC10" t="n">
-        <v>551.3475442139351</v>
+        <v>684.4855016694206</v>
       </c>
       <c r="AD10" t="n">
-        <v>445475.4775117395</v>
+        <v>553047.726259086</v>
       </c>
       <c r="AE10" t="n">
-        <v>609519.2013225921</v>
+        <v>756704.297811388</v>
       </c>
       <c r="AF10" t="n">
         <v>7.418455621695088e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.15885416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>551347.544213935</v>
+        <v>684485.5016694206</v>
       </c>
     </row>
     <row r="11">
@@ -4331,28 +4331,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>442.6150041927257</v>
+        <v>540.4670625072856</v>
       </c>
       <c r="AB11" t="n">
-        <v>605.6053755323412</v>
+        <v>739.4908786464612</v>
       </c>
       <c r="AC11" t="n">
-        <v>547.8072484640165</v>
+        <v>668.9149070704088</v>
       </c>
       <c r="AD11" t="n">
-        <v>442615.0041927257</v>
+        <v>540467.0625072856</v>
       </c>
       <c r="AE11" t="n">
-        <v>605605.3755323412</v>
+        <v>739490.8786464612</v>
       </c>
       <c r="AF11" t="n">
         <v>7.451242244746906e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.06119791666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>547807.2484640166</v>
+        <v>668914.9070704088</v>
       </c>
     </row>
     <row r="12">
@@ -4437,28 +4437,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>443.6186007965715</v>
+        <v>541.4706591111313</v>
       </c>
       <c r="AB12" t="n">
-        <v>606.9785406812802</v>
+        <v>740.8640437954003</v>
       </c>
       <c r="AC12" t="n">
-        <v>549.0493606583905</v>
+        <v>670.1570192647825</v>
       </c>
       <c r="AD12" t="n">
-        <v>443618.6007965715</v>
+        <v>541470.6591111313</v>
       </c>
       <c r="AE12" t="n">
-        <v>606978.5406812802</v>
+        <v>740864.0437954003</v>
       </c>
       <c r="AF12" t="n">
         <v>7.451242244746906e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>22</v>
+        <v>21.06119791666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>549049.3606583904</v>
+        <v>670157.0192647825</v>
       </c>
     </row>
   </sheetData>
@@ -4734,28 +4734,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>986.9071142875511</v>
+        <v>1170.73606291312</v>
       </c>
       <c r="AB2" t="n">
-        <v>1350.329853037263</v>
+        <v>1601.852730507607</v>
       </c>
       <c r="AC2" t="n">
-        <v>1221.456267063237</v>
+        <v>1448.974154122388</v>
       </c>
       <c r="AD2" t="n">
-        <v>986907.114287551</v>
+        <v>1170736.06291312</v>
       </c>
       <c r="AE2" t="n">
-        <v>1350329.853037263</v>
+        <v>1601852.730507607</v>
       </c>
       <c r="AF2" t="n">
         <v>4.610413873155834e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>38</v>
+        <v>37.25260416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1221456.267063237</v>
+        <v>1448974.154122388</v>
       </c>
     </row>
     <row r="3">
@@ -4840,28 +4840,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>594.7242622527876</v>
+        <v>720.5040813964887</v>
       </c>
       <c r="AB3" t="n">
-        <v>813.7279729969739</v>
+        <v>985.8254705633765</v>
       </c>
       <c r="AC3" t="n">
-        <v>736.0669173285249</v>
+        <v>891.739671267545</v>
       </c>
       <c r="AD3" t="n">
-        <v>594724.2622527876</v>
+        <v>720504.0813964887</v>
       </c>
       <c r="AE3" t="n">
-        <v>813727.9729969739</v>
+        <v>985825.4705633764</v>
       </c>
       <c r="AF3" t="n">
         <v>6.553445603883943e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.20442708333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>736066.917328525</v>
+        <v>891739.671267545</v>
       </c>
     </row>
     <row r="4">
@@ -4946,28 +4946,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>505.0503530247462</v>
+        <v>621.2169428260436</v>
       </c>
       <c r="AB4" t="n">
-        <v>691.0321742575024</v>
+        <v>849.9764273318816</v>
       </c>
       <c r="AC4" t="n">
-        <v>625.0810334161135</v>
+        <v>768.8558700567343</v>
       </c>
       <c r="AD4" t="n">
-        <v>505050.3530247462</v>
+        <v>621216.9428260436</v>
       </c>
       <c r="AE4" t="n">
-        <v>691032.1742575024</v>
+        <v>849976.4273318816</v>
       </c>
       <c r="AF4" t="n">
         <v>7.297316019394839e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.53515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>625081.0334161136</v>
+        <v>768855.8700567343</v>
       </c>
     </row>
     <row r="5">
@@ -5052,28 +5052,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>468.2369067080295</v>
+        <v>574.6556275515143</v>
       </c>
       <c r="AB5" t="n">
-        <v>640.6623929123419</v>
+        <v>786.2691816330147</v>
       </c>
       <c r="AC5" t="n">
-        <v>579.5184733081031</v>
+        <v>711.2287544736863</v>
       </c>
       <c r="AD5" t="n">
-        <v>468236.9067080295</v>
+        <v>574655.6275515143</v>
       </c>
       <c r="AE5" t="n">
-        <v>640662.392912342</v>
+        <v>786269.1816330147</v>
       </c>
       <c r="AF5" t="n">
         <v>7.65922744140936e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.421875</v>
       </c>
       <c r="AH5" t="n">
-        <v>579518.4733081032</v>
+        <v>711228.7544736863</v>
       </c>
     </row>
     <row r="6">
@@ -5158,28 +5158,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>439.5265395066347</v>
+        <v>546.012580157824</v>
       </c>
       <c r="AB6" t="n">
-        <v>601.3796018953858</v>
+        <v>747.0785005468998</v>
       </c>
       <c r="AC6" t="n">
-        <v>543.9847767320617</v>
+        <v>675.7783769859641</v>
       </c>
       <c r="AD6" t="n">
-        <v>439526.5395066347</v>
+        <v>546012.580157824</v>
       </c>
       <c r="AE6" t="n">
-        <v>601379.6018953858</v>
+        <v>747078.5005468999</v>
       </c>
       <c r="AF6" t="n">
         <v>7.905337759732646e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.72526041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>543984.7767320618</v>
+        <v>675778.3769859641</v>
       </c>
     </row>
     <row r="7">
@@ -5264,28 +5264,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>424.0532402907473</v>
+        <v>530.4377957154512</v>
       </c>
       <c r="AB7" t="n">
-        <v>580.208351274425</v>
+        <v>725.7683933618498</v>
       </c>
       <c r="AC7" t="n">
-        <v>524.8340805563287</v>
+        <v>656.502076521732</v>
       </c>
       <c r="AD7" t="n">
-        <v>424053.2402907473</v>
+        <v>530437.7957154512</v>
       </c>
       <c r="AE7" t="n">
-        <v>580208.351274425</v>
+        <v>725768.3933618498</v>
       </c>
       <c r="AF7" t="n">
         <v>8.073631846646105e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.26953125</v>
       </c>
       <c r="AH7" t="n">
-        <v>524834.0805563286</v>
+        <v>656502.0765217319</v>
       </c>
     </row>
     <row r="8">
@@ -5370,28 +5370,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>419.0373502768031</v>
+        <v>525.4219057015072</v>
       </c>
       <c r="AB8" t="n">
-        <v>573.3453892718968</v>
+        <v>718.9054313593217</v>
       </c>
       <c r="AC8" t="n">
-        <v>518.6261100150941</v>
+        <v>650.2941059804973</v>
       </c>
       <c r="AD8" t="n">
-        <v>419037.3502768031</v>
+        <v>525421.9057015071</v>
       </c>
       <c r="AE8" t="n">
-        <v>573345.3892718968</v>
+        <v>718905.4313593217</v>
       </c>
       <c r="AF8" t="n">
         <v>8.114254557280388e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.16536458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>518626.1100150941</v>
+        <v>650294.1059804973</v>
       </c>
     </row>
     <row r="9">
@@ -5476,28 +5476,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>419.5090612492745</v>
+        <v>516.2813983614321</v>
       </c>
       <c r="AB9" t="n">
-        <v>573.9908050348516</v>
+        <v>706.3989859659071</v>
       </c>
       <c r="AC9" t="n">
-        <v>519.2099282034792</v>
+        <v>638.9812581825239</v>
       </c>
       <c r="AD9" t="n">
-        <v>419509.0612492745</v>
+        <v>516281.3983614321</v>
       </c>
       <c r="AE9" t="n">
-        <v>573990.8050348517</v>
+        <v>706398.9859659071</v>
       </c>
       <c r="AF9" t="n">
         <v>8.131400506574078e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.11979166666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>519209.9282034792</v>
+        <v>638981.2581825239</v>
       </c>
     </row>
   </sheetData>
@@ -5773,28 +5773,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>480.8780602373104</v>
+        <v>602.4320030460508</v>
       </c>
       <c r="AB2" t="n">
-        <v>657.9585768594382</v>
+        <v>824.2740439918414</v>
       </c>
       <c r="AC2" t="n">
-        <v>595.1639337346352</v>
+        <v>745.6064861091461</v>
       </c>
       <c r="AD2" t="n">
-        <v>480878.0602373104</v>
+        <v>602432.0030460508</v>
       </c>
       <c r="AE2" t="n">
-        <v>657958.5768594382</v>
+        <v>824274.0439918414</v>
       </c>
       <c r="AF2" t="n">
         <v>9.203889772764565e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.04166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>595163.9337346351</v>
+        <v>745606.486109146</v>
       </c>
     </row>
     <row r="3">
@@ -5879,28 +5879,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>372.0579222742819</v>
+        <v>474.9009016035693</v>
       </c>
       <c r="AB3" t="n">
-        <v>509.0660632927596</v>
+        <v>649.7803647231252</v>
       </c>
       <c r="AC3" t="n">
-        <v>460.4815126908051</v>
+        <v>587.7662386864191</v>
       </c>
       <c r="AD3" t="n">
-        <v>372057.9222742819</v>
+        <v>474900.9016035693</v>
       </c>
       <c r="AE3" t="n">
-        <v>509066.0632927596</v>
+        <v>649780.3647231252</v>
       </c>
       <c r="AF3" t="n">
         <v>1.08725043999415e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.04427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>460481.5126908051</v>
+        <v>587766.2386864191</v>
       </c>
     </row>
     <row r="4">
@@ -5985,28 +5985,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>361.5205101578802</v>
+        <v>473.7179601970367</v>
       </c>
       <c r="AB4" t="n">
-        <v>494.6483111572857</v>
+        <v>648.1618121030158</v>
       </c>
       <c r="AC4" t="n">
-        <v>447.4397705836985</v>
+        <v>586.30215845672</v>
       </c>
       <c r="AD4" t="n">
-        <v>361520.5101578801</v>
+        <v>473717.9601970367</v>
       </c>
       <c r="AE4" t="n">
-        <v>494648.3111572857</v>
+        <v>648161.8121030158</v>
       </c>
       <c r="AF4" t="n">
         <v>1.092699578670721e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.94010416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>447439.7705836985</v>
+        <v>586302.1584567201</v>
       </c>
     </row>
   </sheetData>
@@ -6282,28 +6282,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>619.8922135033478</v>
+        <v>762.0292802040456</v>
       </c>
       <c r="AB2" t="n">
-        <v>848.1638742296359</v>
+        <v>1042.642079534354</v>
       </c>
       <c r="AC2" t="n">
-        <v>767.2163044786328</v>
+        <v>943.1337828209439</v>
       </c>
       <c r="AD2" t="n">
-        <v>619892.2135033477</v>
+        <v>762029.2802040456</v>
       </c>
       <c r="AE2" t="n">
-        <v>848163.8742296359</v>
+        <v>1042642.079534354</v>
       </c>
       <c r="AF2" t="n">
         <v>7.070134779020759e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.36197916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>767216.3044786328</v>
+        <v>943133.7828209439</v>
       </c>
     </row>
     <row r="3">
@@ -6388,28 +6388,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>441.4777829340287</v>
+        <v>555.1671392492901</v>
       </c>
       <c r="AB3" t="n">
-        <v>604.0493792355308</v>
+        <v>759.6041721664873</v>
       </c>
       <c r="AC3" t="n">
-        <v>546.3997542699192</v>
+        <v>687.1086160860684</v>
       </c>
       <c r="AD3" t="n">
-        <v>441477.7829340287</v>
+        <v>555167.1392492901</v>
       </c>
       <c r="AE3" t="n">
-        <v>604049.3792355307</v>
+        <v>759604.1721664873</v>
       </c>
       <c r="AF3" t="n">
         <v>8.914351409392189e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.28776041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>546399.7542699192</v>
+        <v>687108.6160860684</v>
       </c>
     </row>
     <row r="4">
@@ -6494,28 +6494,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>386.8072569862629</v>
+        <v>491.1155283995306</v>
       </c>
       <c r="AB4" t="n">
-        <v>529.2467537404158</v>
+        <v>671.9659324442079</v>
       </c>
       <c r="AC4" t="n">
-        <v>478.7361863659139</v>
+        <v>607.8344469618413</v>
       </c>
       <c r="AD4" t="n">
-        <v>386807.2569862629</v>
+        <v>491115.5283995306</v>
       </c>
       <c r="AE4" t="n">
-        <v>529246.7537404158</v>
+        <v>671965.9324442078</v>
       </c>
       <c r="AF4" t="n">
         <v>9.579787112639972e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>478736.1863659139</v>
+        <v>607834.4469618413</v>
       </c>
     </row>
     <row r="5">
@@ -6600,28 +6600,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>381.2216872826354</v>
+        <v>485.4284734694179</v>
       </c>
       <c r="AB5" t="n">
-        <v>521.6043308539687</v>
+        <v>664.1846529936713</v>
       </c>
       <c r="AC5" t="n">
-        <v>471.8231455935414</v>
+        <v>600.7958019009698</v>
       </c>
       <c r="AD5" t="n">
-        <v>381221.6872826354</v>
+        <v>485428.4734694179</v>
       </c>
       <c r="AE5" t="n">
-        <v>521604.3308539687</v>
+        <v>664184.6529936714</v>
       </c>
       <c r="AF5" t="n">
         <v>9.684688093171125e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.43229166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>471823.1455935414</v>
+        <v>600795.8019009698</v>
       </c>
     </row>
   </sheetData>
@@ -6897,28 +6897,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>383.5976297043821</v>
+        <v>503.7954603521238</v>
       </c>
       <c r="AB2" t="n">
-        <v>524.8552000945843</v>
+        <v>689.3151747408627</v>
       </c>
       <c r="AC2" t="n">
-        <v>474.7637564364563</v>
+        <v>623.5279019235182</v>
       </c>
       <c r="AD2" t="n">
-        <v>383597.6297043822</v>
+        <v>503795.4603521238</v>
       </c>
       <c r="AE2" t="n">
-        <v>524855.2000945844</v>
+        <v>689315.1747408628</v>
       </c>
       <c r="AF2" t="n">
         <v>1.14792521533704e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.91927083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>474763.7564364563</v>
+        <v>623527.9019235183</v>
       </c>
     </row>
     <row r="3">
@@ -7003,28 +7003,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>355.18579064261</v>
+        <v>466.1665435179552</v>
       </c>
       <c r="AB3" t="n">
-        <v>485.9808684483918</v>
+        <v>637.8296306577047</v>
       </c>
       <c r="AC3" t="n">
-        <v>439.5995364421092</v>
+        <v>576.9560659072416</v>
       </c>
       <c r="AD3" t="n">
-        <v>355185.7906426099</v>
+        <v>466166.5435179552</v>
       </c>
       <c r="AE3" t="n">
-        <v>485980.8684483918</v>
+        <v>637829.6306577047</v>
       </c>
       <c r="AF3" t="n">
         <v>1.212783559306342e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.63671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>439599.5364421092</v>
+        <v>576956.0659072417</v>
       </c>
     </row>
   </sheetData>
@@ -7300,28 +7300,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1060.130251658951</v>
+        <v>1254.274660216705</v>
       </c>
       <c r="AB2" t="n">
-        <v>1450.516979965643</v>
+        <v>1716.153924801178</v>
       </c>
       <c r="AC2" t="n">
-        <v>1312.08167521109</v>
+        <v>1552.366602855314</v>
       </c>
       <c r="AD2" t="n">
-        <v>1060130.25165895</v>
+        <v>1254274.660216705</v>
       </c>
       <c r="AE2" t="n">
-        <v>1450516.979965643</v>
+        <v>1716153.924801178</v>
       </c>
       <c r="AF2" t="n">
         <v>4.315503612860024e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.83463541666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1312081.675211089</v>
+        <v>1552366.602855314</v>
       </c>
     </row>
     <row r="3">
@@ -7406,28 +7406,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>614.5582005411425</v>
+        <v>750.4490369059364</v>
       </c>
       <c r="AB3" t="n">
-        <v>840.8656423747029</v>
+        <v>1026.797479769603</v>
       </c>
       <c r="AC3" t="n">
-        <v>760.6146056288019</v>
+        <v>928.8013694197051</v>
       </c>
       <c r="AD3" t="n">
-        <v>614558.2005411425</v>
+        <v>750449.0369059364</v>
       </c>
       <c r="AE3" t="n">
-        <v>840865.642374703</v>
+        <v>1026797.479769603</v>
       </c>
       <c r="AF3" t="n">
         <v>6.290364556365071e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>760614.6056288019</v>
+        <v>928801.3694197051</v>
       </c>
     </row>
     <row r="4">
@@ -7512,28 +7512,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>521.4392850697988</v>
+        <v>647.5870273169852</v>
       </c>
       <c r="AB4" t="n">
-        <v>713.4562341101963</v>
+        <v>886.0571402984093</v>
       </c>
       <c r="AC4" t="n">
-        <v>645.3649724688321</v>
+        <v>801.4930904173352</v>
       </c>
       <c r="AD4" t="n">
-        <v>521439.2850697988</v>
+        <v>647587.0273169852</v>
       </c>
       <c r="AE4" t="n">
-        <v>713456.2341101964</v>
+        <v>886057.1402984093</v>
       </c>
       <c r="AF4" t="n">
         <v>7.021928008064932e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.8671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>645364.972468832</v>
+        <v>801493.0904173353</v>
       </c>
     </row>
     <row r="5">
@@ -7618,28 +7618,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>482.4898888933581</v>
+        <v>598.9628678604984</v>
       </c>
       <c r="AB5" t="n">
-        <v>660.1639519355042</v>
+        <v>819.5274201835259</v>
       </c>
       <c r="AC5" t="n">
-        <v>597.1588309087048</v>
+        <v>741.3128734151677</v>
       </c>
       <c r="AD5" t="n">
-        <v>482489.8888933581</v>
+        <v>598962.8678604984</v>
       </c>
       <c r="AE5" t="n">
-        <v>660163.9519355042</v>
+        <v>819527.4201835259</v>
       </c>
       <c r="AF5" t="n">
         <v>7.399293250919259e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.64973958333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>597158.8309087048</v>
+        <v>741312.8734151677</v>
       </c>
     </row>
     <row r="6">
@@ -7724,28 +7724,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>453.9373790174838</v>
+        <v>570.3761925658434</v>
       </c>
       <c r="AB6" t="n">
-        <v>621.0971482754987</v>
+        <v>780.4138698902726</v>
       </c>
       <c r="AC6" t="n">
-        <v>561.8205081594069</v>
+        <v>705.93226546569</v>
       </c>
       <c r="AD6" t="n">
-        <v>453937.3790174838</v>
+        <v>570376.1925658435</v>
       </c>
       <c r="AE6" t="n">
-        <v>621097.1482754988</v>
+        <v>780413.8698902726</v>
       </c>
       <c r="AF6" t="n">
         <v>7.630963591007182e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.95963541666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>561820.5081594069</v>
+        <v>705932.2654656899</v>
       </c>
     </row>
     <row r="7">
@@ -7830,28 +7830,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>437.3105168928481</v>
+        <v>544.0072473534572</v>
       </c>
       <c r="AB7" t="n">
-        <v>598.3475419911849</v>
+        <v>744.3347157349258</v>
       </c>
       <c r="AC7" t="n">
-        <v>541.2420923695951</v>
+        <v>673.2964551455185</v>
       </c>
       <c r="AD7" t="n">
-        <v>437310.5168928481</v>
+        <v>544007.2473534571</v>
       </c>
       <c r="AE7" t="n">
-        <v>598347.5419911849</v>
+        <v>744334.7157349258</v>
       </c>
       <c r="AF7" t="n">
         <v>7.818873977967387e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.43229166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>541242.0923695951</v>
+        <v>673296.4551455185</v>
       </c>
     </row>
     <row r="8">
@@ -7936,28 +7936,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>427.3934197150316</v>
+        <v>534.0901501756408</v>
       </c>
       <c r="AB8" t="n">
-        <v>584.778532121047</v>
+        <v>730.7657058647881</v>
       </c>
       <c r="AC8" t="n">
-        <v>528.9680897572381</v>
+        <v>661.0224525331616</v>
       </c>
       <c r="AD8" t="n">
-        <v>427393.4197150316</v>
+        <v>534090.1501756408</v>
       </c>
       <c r="AE8" t="n">
-        <v>584778.5321210469</v>
+        <v>730765.705864788</v>
       </c>
       <c r="AF8" t="n">
         <v>7.918234812716207e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.16536458333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>528968.089757238</v>
+        <v>661022.4525331616</v>
       </c>
     </row>
     <row r="9">
@@ -8042,28 +8042,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>425.5630789623618</v>
+        <v>532.259809422971</v>
       </c>
       <c r="AB9" t="n">
-        <v>582.2741791543091</v>
+        <v>728.2613528980501</v>
       </c>
       <c r="AC9" t="n">
-        <v>526.7027487227642</v>
+        <v>658.7571114986877</v>
       </c>
       <c r="AD9" t="n">
-        <v>425563.0789623618</v>
+        <v>532259.809422971</v>
       </c>
       <c r="AE9" t="n">
-        <v>582274.1791543091</v>
+        <v>728261.3528980501</v>
       </c>
       <c r="AF9" t="n">
         <v>7.931105387165536e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.1328125</v>
       </c>
       <c r="AH9" t="n">
-        <v>526702.7487227642</v>
+        <v>658757.1114986876</v>
       </c>
     </row>
     <row r="10">
@@ -8148,28 +8148,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>426.5076430275928</v>
+        <v>533.204373488202</v>
       </c>
       <c r="AB10" t="n">
-        <v>583.5665733795838</v>
+        <v>729.5537471233248</v>
       </c>
       <c r="AC10" t="n">
-        <v>527.8717986570653</v>
+        <v>659.9261614329888</v>
       </c>
       <c r="AD10" t="n">
-        <v>426507.6430275928</v>
+        <v>533204.373488202</v>
       </c>
       <c r="AE10" t="n">
-        <v>583566.5733795838</v>
+        <v>729553.7471233248</v>
       </c>
       <c r="AF10" t="n">
         <v>7.931620210143509e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.12630208333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>527871.7986570653</v>
+        <v>659926.1614329888</v>
       </c>
     </row>
   </sheetData>
@@ -8445,28 +8445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.7548312118785</v>
+        <v>466.9275663429352</v>
       </c>
       <c r="AB2" t="n">
-        <v>488.1276989764493</v>
+        <v>638.8708956607998</v>
       </c>
       <c r="AC2" t="n">
-        <v>441.5414764776646</v>
+        <v>577.8979540398659</v>
       </c>
       <c r="AD2" t="n">
-        <v>356754.8312118785</v>
+        <v>466927.5663429352</v>
       </c>
       <c r="AE2" t="n">
-        <v>488127.6989764493</v>
+        <v>638870.8956607998</v>
       </c>
       <c r="AF2" t="n">
         <v>1.283911510209522e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.3984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>441541.4764776646</v>
+        <v>577897.9540398659</v>
       </c>
     </row>
     <row r="3">
@@ -8551,28 +8551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>356.8548366970471</v>
+        <v>467.0275718281039</v>
       </c>
       <c r="AB3" t="n">
-        <v>488.2645308931877</v>
+        <v>639.0077275775382</v>
       </c>
       <c r="AC3" t="n">
-        <v>441.6652493483143</v>
+        <v>578.0217269105156</v>
       </c>
       <c r="AD3" t="n">
-        <v>356854.8366970471</v>
+        <v>467027.5718281039</v>
       </c>
       <c r="AE3" t="n">
-        <v>488264.5308931877</v>
+        <v>639007.7275775381</v>
       </c>
       <c r="AF3" t="n">
         <v>1.289863876240681e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.28776041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>441665.2493483142</v>
+        <v>578021.7269105156</v>
       </c>
     </row>
   </sheetData>
@@ -8848,28 +8848,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>777.163101286456</v>
+        <v>940.132480188757</v>
       </c>
       <c r="AB2" t="n">
-        <v>1063.348841196373</v>
+        <v>1286.330735112074</v>
       </c>
       <c r="AC2" t="n">
-        <v>961.8643202120621</v>
+        <v>1163.565135129503</v>
       </c>
       <c r="AD2" t="n">
-        <v>777163.101286456</v>
+        <v>940132.4801887569</v>
       </c>
       <c r="AE2" t="n">
-        <v>1063348.841196373</v>
+        <v>1286330.735112074</v>
       </c>
       <c r="AF2" t="n">
         <v>5.659989978837259e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.99479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>961864.3202120621</v>
+        <v>1163565.135129503</v>
       </c>
     </row>
     <row r="3">
@@ -8954,28 +8954,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>511.402085716873</v>
+        <v>636.0176894848018</v>
       </c>
       <c r="AB3" t="n">
-        <v>699.7228951455398</v>
+        <v>870.2274618732533</v>
       </c>
       <c r="AC3" t="n">
-        <v>632.9423241001001</v>
+        <v>787.174174283983</v>
       </c>
       <c r="AD3" t="n">
-        <v>511402.085716873</v>
+        <v>636017.6894848018</v>
       </c>
       <c r="AE3" t="n">
-        <v>699722.8951455399</v>
+        <v>870227.4618732533</v>
       </c>
       <c r="AF3" t="n">
         <v>7.567400578303521e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.67447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>632942.3241001001</v>
+        <v>787174.174283983</v>
       </c>
     </row>
     <row r="4">
@@ -9060,28 +9060,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>447.9925390986267</v>
+        <v>563.0196990829625</v>
       </c>
       <c r="AB4" t="n">
-        <v>612.9631560306913</v>
+        <v>770.3483909614077</v>
       </c>
       <c r="AC4" t="n">
-        <v>554.4628127183141</v>
+        <v>696.8274217188075</v>
       </c>
       <c r="AD4" t="n">
-        <v>447992.5390986267</v>
+        <v>563019.6990829625</v>
       </c>
       <c r="AE4" t="n">
-        <v>612963.1560306912</v>
+        <v>770348.3909614078</v>
       </c>
       <c r="AF4" t="n">
         <v>8.241734761663701e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.65625</v>
       </c>
       <c r="AH4" t="n">
-        <v>554462.8127183141</v>
+        <v>696827.4217188075</v>
       </c>
     </row>
     <row r="5">
@@ -9166,28 +9166,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>413.0696134389846</v>
+        <v>518.5424950585082</v>
       </c>
       <c r="AB5" t="n">
-        <v>565.1800684524255</v>
+        <v>709.4927182193927</v>
       </c>
       <c r="AC5" t="n">
-        <v>511.2400759545333</v>
+        <v>641.7797289718173</v>
       </c>
       <c r="AD5" t="n">
-        <v>413069.6134389846</v>
+        <v>518542.4950585082</v>
       </c>
       <c r="AE5" t="n">
-        <v>565180.0684524255</v>
+        <v>709492.7182193927</v>
       </c>
       <c r="AF5" t="n">
         <v>8.626945654157413e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.64713541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>511240.0759545333</v>
+        <v>641779.7289718173</v>
       </c>
     </row>
     <row r="6">
@@ -9272,28 +9272,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>401.1012199536923</v>
+        <v>506.4726163467307</v>
       </c>
       <c r="AB6" t="n">
-        <v>548.8043844775929</v>
+        <v>692.9781776804709</v>
       </c>
       <c r="AC6" t="n">
-        <v>496.427264274842</v>
+        <v>626.8413130036269</v>
       </c>
       <c r="AD6" t="n">
-        <v>401101.2199536923</v>
+        <v>506472.6163467307</v>
       </c>
       <c r="AE6" t="n">
-        <v>548804.3844775929</v>
+        <v>692978.177680471</v>
       </c>
       <c r="AF6" t="n">
         <v>8.783840932038321e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.25651041666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>496427.264274842</v>
+        <v>626841.3130036269</v>
       </c>
     </row>
     <row r="7">
@@ -9378,28 +9378,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>401.1146691066525</v>
+        <v>506.4860654996908</v>
       </c>
       <c r="AB7" t="n">
-        <v>548.8227862020078</v>
+        <v>692.9965794048858</v>
       </c>
       <c r="AC7" t="n">
-        <v>496.4439097645057</v>
+        <v>626.8579584932905</v>
       </c>
       <c r="AD7" t="n">
-        <v>401114.6691066525</v>
+        <v>506486.0654996908</v>
       </c>
       <c r="AE7" t="n">
-        <v>548822.7862020078</v>
+        <v>692996.5794048858</v>
       </c>
       <c r="AF7" t="n">
         <v>8.804205767010068e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.2109375</v>
       </c>
       <c r="AH7" t="n">
-        <v>496443.9097645057</v>
+        <v>626857.9584932906</v>
       </c>
     </row>
   </sheetData>
@@ -9675,28 +9675,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>910.3817325686296</v>
+        <v>1093.684119966237</v>
       </c>
       <c r="AB2" t="n">
-        <v>1245.624449707863</v>
+        <v>1496.426862875869</v>
       </c>
       <c r="AC2" t="n">
-        <v>1126.74380047264</v>
+        <v>1353.609983331288</v>
       </c>
       <c r="AD2" t="n">
-        <v>910381.7325686296</v>
+        <v>1093684.119966237</v>
       </c>
       <c r="AE2" t="n">
-        <v>1245624.449707863</v>
+        <v>1496426.862875869</v>
       </c>
       <c r="AF2" t="n">
         <v>4.925320727854834e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>36</v>
+        <v>35.78776041666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1126743.80047264</v>
+        <v>1353609.983331288</v>
       </c>
     </row>
     <row r="3">
@@ -9781,28 +9781,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>561.8255635245032</v>
+        <v>687.2897391590925</v>
       </c>
       <c r="AB3" t="n">
-        <v>768.714522008781</v>
+        <v>940.380142200808</v>
       </c>
       <c r="AC3" t="n">
-        <v>695.34948692587</v>
+        <v>850.6315812609812</v>
       </c>
       <c r="AD3" t="n">
-        <v>561825.5635245031</v>
+        <v>687289.7391590925</v>
       </c>
       <c r="AE3" t="n">
-        <v>768714.5220087811</v>
+        <v>940380.142200808</v>
       </c>
       <c r="AF3" t="n">
         <v>6.879529446723357e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.625</v>
       </c>
       <c r="AH3" t="n">
-        <v>695349.4869258699</v>
+        <v>850631.5812609812</v>
       </c>
     </row>
     <row r="4">
@@ -9887,28 +9887,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>489.229312841911</v>
+        <v>604.9409128165853</v>
       </c>
       <c r="AB4" t="n">
-        <v>669.3851291043151</v>
+        <v>827.7068450251738</v>
       </c>
       <c r="AC4" t="n">
-        <v>605.4999518705278</v>
+        <v>748.7116654298237</v>
       </c>
       <c r="AD4" t="n">
-        <v>489229.312841911</v>
+        <v>604940.9128165853</v>
       </c>
       <c r="AE4" t="n">
-        <v>669385.1291043151</v>
+        <v>827706.8450251739</v>
       </c>
       <c r="AF4" t="n">
         <v>7.583185370849055e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.2421875</v>
       </c>
       <c r="AH4" t="n">
-        <v>605499.9518705277</v>
+        <v>748711.6654298237</v>
       </c>
     </row>
     <row r="5">
@@ -9993,28 +9993,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>453.2285156893892</v>
+        <v>559.3231906494142</v>
       </c>
       <c r="AB5" t="n">
-        <v>620.1272501971571</v>
+        <v>765.2906650441845</v>
       </c>
       <c r="AC5" t="n">
-        <v>560.9431757924016</v>
+        <v>692.252398064561</v>
       </c>
       <c r="AD5" t="n">
-        <v>453228.5156893892</v>
+        <v>559323.1906494142</v>
       </c>
       <c r="AE5" t="n">
-        <v>620127.250197157</v>
+        <v>765290.6650441845</v>
       </c>
       <c r="AF5" t="n">
         <v>7.962222805930233e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.13541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>560943.1757924015</v>
+        <v>692252.3980645611</v>
       </c>
     </row>
     <row r="6">
@@ -10099,28 +10099,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>424.9956786914418</v>
+        <v>531.1576734591712</v>
       </c>
       <c r="AB6" t="n">
-        <v>581.4978370717032</v>
+        <v>726.753361849572</v>
       </c>
       <c r="AC6" t="n">
-        <v>526.0004996389192</v>
+        <v>657.3930409993978</v>
       </c>
       <c r="AD6" t="n">
-        <v>424995.6786914418</v>
+        <v>531157.6734591712</v>
       </c>
       <c r="AE6" t="n">
-        <v>581497.8370717032</v>
+        <v>726753.361849572</v>
       </c>
       <c r="AF6" t="n">
         <v>8.196684533630447e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.50390625</v>
       </c>
       <c r="AH6" t="n">
-        <v>526000.4996389193</v>
+        <v>657393.0409993979</v>
       </c>
     </row>
     <row r="7">
@@ -10205,28 +10205,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>412.6713615546799</v>
+        <v>518.731871095924</v>
       </c>
       <c r="AB7" t="n">
-        <v>564.6351626546866</v>
+        <v>709.7518308684663</v>
       </c>
       <c r="AC7" t="n">
-        <v>510.7471752013506</v>
+        <v>642.0141122733302</v>
       </c>
       <c r="AD7" t="n">
-        <v>412671.3615546799</v>
+        <v>518731.8710959241</v>
       </c>
       <c r="AE7" t="n">
-        <v>564635.1626546866</v>
+        <v>709751.8308684663</v>
       </c>
       <c r="AF7" t="n">
         <v>8.329347635908857e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.15885416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>510747.1752013505</v>
+        <v>642014.1122733302</v>
       </c>
     </row>
     <row r="8">
@@ -10311,28 +10311,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>412.2119388196566</v>
+        <v>508.6896887650324</v>
       </c>
       <c r="AB8" t="n">
-        <v>564.0065602003272</v>
+        <v>696.0116739735234</v>
       </c>
       <c r="AC8" t="n">
-        <v>510.1785656829861</v>
+        <v>629.5852966680093</v>
       </c>
       <c r="AD8" t="n">
-        <v>412211.9388196566</v>
+        <v>508689.6887650324</v>
       </c>
       <c r="AE8" t="n">
-        <v>564006.5602003272</v>
+        <v>696011.6739735234</v>
       </c>
       <c r="AF8" t="n">
         <v>8.345862838437394e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.11979166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>510178.5656829861</v>
+        <v>629585.2966680093</v>
       </c>
     </row>
   </sheetData>
@@ -10608,28 +10608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1245.133943464218</v>
+        <v>1459.780662307919</v>
       </c>
       <c r="AB2" t="n">
-        <v>1703.647192880463</v>
+        <v>1997.336303147322</v>
       </c>
       <c r="AC2" t="n">
-        <v>1541.053495875804</v>
+        <v>1806.713329654049</v>
       </c>
       <c r="AD2" t="n">
-        <v>1245133.943464218</v>
+        <v>1459780.662307919</v>
       </c>
       <c r="AE2" t="n">
-        <v>1703647.192880463</v>
+        <v>1997336.303147322</v>
       </c>
       <c r="AF2" t="n">
         <v>3.787509788565913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.30468750000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>1541053.495875804</v>
+        <v>1806713.329654049</v>
       </c>
     </row>
     <row r="3">
@@ -10714,28 +10714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>670.0306427834665</v>
+        <v>806.7103324582632</v>
       </c>
       <c r="AB3" t="n">
-        <v>916.7654851220827</v>
+        <v>1103.77666641748</v>
       </c>
       <c r="AC3" t="n">
-        <v>829.27067391047</v>
+        <v>998.4337705348762</v>
       </c>
       <c r="AD3" t="n">
-        <v>670030.6427834665</v>
+        <v>806710.3324582633</v>
       </c>
       <c r="AE3" t="n">
-        <v>916765.4851220828</v>
+        <v>1103776.66641748</v>
       </c>
       <c r="AF3" t="n">
         <v>5.78180388283777e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.71484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>829270.67391047</v>
+        <v>998433.7705348762</v>
       </c>
     </row>
     <row r="4">
@@ -10820,28 +10820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>564.4540474571489</v>
+        <v>691.3367367363935</v>
       </c>
       <c r="AB4" t="n">
-        <v>772.310929685954</v>
+        <v>945.9174228270037</v>
       </c>
       <c r="AC4" t="n">
-        <v>698.6026585019233</v>
+        <v>855.6403915958349</v>
       </c>
       <c r="AD4" t="n">
-        <v>564454.0474571489</v>
+        <v>691336.7367363935</v>
       </c>
       <c r="AE4" t="n">
-        <v>772310.929685954</v>
+        <v>945917.4228270038</v>
       </c>
       <c r="AF4" t="n">
         <v>6.526803046525405e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.55078125</v>
       </c>
       <c r="AH4" t="n">
-        <v>698602.6585019233</v>
+        <v>855640.3915958349</v>
       </c>
     </row>
     <row r="5">
@@ -10926,28 +10926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>520.5661990507779</v>
+        <v>637.6187335455469</v>
       </c>
       <c r="AB5" t="n">
-        <v>712.2616393011352</v>
+        <v>872.4180809902437</v>
       </c>
       <c r="AC5" t="n">
-        <v>644.2843881117234</v>
+        <v>789.1557237870011</v>
       </c>
       <c r="AD5" t="n">
-        <v>520566.1990507778</v>
+        <v>637618.7335455469</v>
       </c>
       <c r="AE5" t="n">
-        <v>712261.6393011352</v>
+        <v>872418.0809902437</v>
       </c>
       <c r="AF5" t="n">
         <v>6.922806896665281e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>23.14453125</v>
       </c>
       <c r="AH5" t="n">
-        <v>644284.3881117234</v>
+        <v>789155.7237870011</v>
       </c>
     </row>
     <row r="6">
@@ -11032,28 +11032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>488.5657381450506</v>
+        <v>595.8896030818294</v>
       </c>
       <c r="AB6" t="n">
-        <v>668.4771969292212</v>
+        <v>815.3224437304777</v>
       </c>
       <c r="AC6" t="n">
-        <v>604.678671467934</v>
+        <v>737.5092140130769</v>
       </c>
       <c r="AD6" t="n">
-        <v>488565.7381450506</v>
+        <v>595889.6030818294</v>
       </c>
       <c r="AE6" t="n">
-        <v>668477.1969292213</v>
+        <v>815322.4437304777</v>
       </c>
       <c r="AF6" t="n">
         <v>7.185907030785559e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.29817708333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>604678.671467934</v>
+        <v>737509.2140130769</v>
       </c>
     </row>
     <row r="7">
@@ -11138,28 +11138,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>464.5713110539178</v>
+        <v>581.6569999376106</v>
       </c>
       <c r="AB7" t="n">
-        <v>635.6469632237194</v>
+        <v>795.8487682104216</v>
       </c>
       <c r="AC7" t="n">
-        <v>574.981709189763</v>
+        <v>719.8940787531799</v>
       </c>
       <c r="AD7" t="n">
-        <v>464571.3110539179</v>
+        <v>581656.9999376106</v>
       </c>
       <c r="AE7" t="n">
-        <v>635646.9632237194</v>
+        <v>795848.7682104215</v>
       </c>
       <c r="AF7" t="n">
         <v>7.34465313603119e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.81640625</v>
       </c>
       <c r="AH7" t="n">
-        <v>574981.7091897631</v>
+        <v>719894.0787531799</v>
       </c>
     </row>
     <row r="8">
@@ -11244,28 +11244,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>451.2427439870871</v>
+        <v>558.532443505085</v>
       </c>
       <c r="AB8" t="n">
-        <v>617.4102297480026</v>
+        <v>764.2087299160112</v>
       </c>
       <c r="AC8" t="n">
-        <v>558.4854639615523</v>
+        <v>691.2737213065153</v>
       </c>
       <c r="AD8" t="n">
-        <v>451242.743987087</v>
+        <v>558532.443505085</v>
       </c>
       <c r="AE8" t="n">
-        <v>617410.2297480026</v>
+        <v>764208.7299160112</v>
       </c>
       <c r="AF8" t="n">
         <v>7.479033560006562e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.42578125</v>
       </c>
       <c r="AH8" t="n">
-        <v>558485.4639615524</v>
+        <v>691273.7213065153</v>
       </c>
     </row>
     <row r="9">
@@ -11350,28 +11350,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>441.6028196647958</v>
+        <v>548.8925191827936</v>
       </c>
       <c r="AB9" t="n">
-        <v>604.2204600067975</v>
+        <v>751.0189601748062</v>
       </c>
       <c r="AC9" t="n">
-        <v>546.5545073324898</v>
+        <v>679.3427646774527</v>
       </c>
       <c r="AD9" t="n">
-        <v>441602.8196647958</v>
+        <v>548892.5191827937</v>
       </c>
       <c r="AE9" t="n">
-        <v>604220.4600067975</v>
+        <v>751018.9601748062</v>
       </c>
       <c r="AF9" t="n">
         <v>7.557545199655176e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.20442708333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>546554.5073324898</v>
+        <v>679342.7646774527</v>
       </c>
     </row>
     <row r="10">
@@ -11456,28 +11456,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>437.7205061301901</v>
+        <v>535.3157015089783</v>
       </c>
       <c r="AB10" t="n">
-        <v>598.908507353165</v>
+        <v>732.4425592665693</v>
       </c>
       <c r="AC10" t="n">
-        <v>541.7495199847475</v>
+        <v>662.5392693997557</v>
       </c>
       <c r="AD10" t="n">
-        <v>437720.5061301901</v>
+        <v>535315.7015089784</v>
       </c>
       <c r="AE10" t="n">
-        <v>598908.507353165</v>
+        <v>732442.5592665693</v>
       </c>
       <c r="AF10" t="n">
         <v>7.591263364645333e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.10677083333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>541749.5199847475</v>
+        <v>662539.2693997556</v>
       </c>
     </row>
     <row r="11">
@@ -11562,28 +11562,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>438.7785483491103</v>
+        <v>536.3737437278986</v>
       </c>
       <c r="AB11" t="n">
-        <v>600.3561673946199</v>
+        <v>733.8902193080244</v>
       </c>
       <c r="AC11" t="n">
-        <v>543.0590173836497</v>
+        <v>663.8487667986577</v>
       </c>
       <c r="AD11" t="n">
-        <v>438778.5483491103</v>
+        <v>536373.7437278986</v>
       </c>
       <c r="AE11" t="n">
-        <v>600356.1673946199</v>
+        <v>733890.2193080244</v>
       </c>
       <c r="AF11" t="n">
         <v>7.590525010667446e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>22</v>
+        <v>21.10677083333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>543059.0173836497</v>
+        <v>663848.7667986577</v>
       </c>
     </row>
   </sheetData>
@@ -11859,28 +11859,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>669.9931538408861</v>
+        <v>822.2748602494022</v>
       </c>
       <c r="AB2" t="n">
-        <v>916.7141910969486</v>
+        <v>1125.072739999821</v>
       </c>
       <c r="AC2" t="n">
-        <v>829.2242753151031</v>
+        <v>1017.697376743745</v>
       </c>
       <c r="AD2" t="n">
-        <v>669993.1538408861</v>
+        <v>822274.8602494022</v>
       </c>
       <c r="AE2" t="n">
-        <v>916714.1910969487</v>
+        <v>1125072.739999821</v>
       </c>
       <c r="AF2" t="n">
         <v>6.541148280804032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.54036458333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>829224.2753151031</v>
+        <v>1017697.376743745</v>
       </c>
     </row>
     <row r="3">
@@ -11965,28 +11965,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>461.8484050220067</v>
+        <v>576.0853088924794</v>
       </c>
       <c r="AB3" t="n">
-        <v>631.9213630647224</v>
+        <v>788.2253347168124</v>
       </c>
       <c r="AC3" t="n">
-        <v>571.6116750810279</v>
+        <v>712.9982150526445</v>
       </c>
       <c r="AD3" t="n">
-        <v>461848.4050220067</v>
+        <v>576085.3088924794</v>
       </c>
       <c r="AE3" t="n">
-        <v>631921.3630647224</v>
+        <v>788225.3347168125</v>
       </c>
       <c r="AF3" t="n">
         <v>8.409697135351457e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>571611.6750810279</v>
+        <v>712998.2150526445</v>
       </c>
     </row>
     <row r="4">
@@ -12071,28 +12071,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>414.2790379122405</v>
+        <v>518.9288799858028</v>
       </c>
       <c r="AB4" t="n">
-        <v>566.8348563727762</v>
+        <v>710.0213871230171</v>
       </c>
       <c r="AC4" t="n">
-        <v>512.7369332382752</v>
+        <v>642.2579424572712</v>
       </c>
       <c r="AD4" t="n">
-        <v>414279.0379122405</v>
+        <v>518928.8799858028</v>
       </c>
       <c r="AE4" t="n">
-        <v>566834.8563727762</v>
+        <v>710021.3871230171</v>
       </c>
       <c r="AF4" t="n">
         <v>9.076729189503525e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.00520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>512736.9332382752</v>
+        <v>642257.9424572712</v>
       </c>
     </row>
     <row r="5">
@@ -12177,28 +12177,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>388.1260085902317</v>
+        <v>492.7416852450132</v>
       </c>
       <c r="AB5" t="n">
-        <v>531.0511278641806</v>
+        <v>674.1909119811737</v>
       </c>
       <c r="AC5" t="n">
-        <v>480.3683535557615</v>
+        <v>609.8470775745774</v>
       </c>
       <c r="AD5" t="n">
-        <v>388126.0085902316</v>
+        <v>492741.6852450132</v>
       </c>
       <c r="AE5" t="n">
-        <v>531051.1278641806</v>
+        <v>674190.9119811737</v>
       </c>
       <c r="AF5" t="n">
         <v>9.342437450265115e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.38020833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>480368.3535557615</v>
+        <v>609847.0775745774</v>
       </c>
     </row>
     <row r="6">
@@ -12283,28 +12283,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>388.5261911103246</v>
+        <v>493.141867765106</v>
       </c>
       <c r="AB6" t="n">
-        <v>531.5986752429784</v>
+        <v>674.7384593599716</v>
       </c>
       <c r="AC6" t="n">
-        <v>480.8636437812145</v>
+        <v>610.3423678000305</v>
       </c>
       <c r="AD6" t="n">
-        <v>388526.1911103246</v>
+        <v>493141.867765106</v>
       </c>
       <c r="AE6" t="n">
-        <v>531598.6752429784</v>
+        <v>674738.4593599716</v>
       </c>
       <c r="AF6" t="n">
         <v>9.358085396337678e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.34765625</v>
       </c>
       <c r="AH6" t="n">
-        <v>480863.6437812145</v>
+        <v>610342.3678000305</v>
       </c>
     </row>
   </sheetData>
@@ -12580,28 +12580,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>525.6795278914536</v>
+        <v>657.1911098260239</v>
       </c>
       <c r="AB2" t="n">
-        <v>719.2579214050955</v>
+        <v>899.197869689493</v>
       </c>
       <c r="AC2" t="n">
-        <v>650.6129548710253</v>
+        <v>813.3796870384635</v>
       </c>
       <c r="AD2" t="n">
-        <v>525679.5278914536</v>
+        <v>657191.1098260239</v>
       </c>
       <c r="AE2" t="n">
-        <v>719257.9214050955</v>
+        <v>899197.869689493</v>
       </c>
       <c r="AF2" t="n">
         <v>8.374127597083872e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.12239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>650612.9548710253</v>
+        <v>813379.6870384635</v>
       </c>
     </row>
     <row r="3">
@@ -12686,28 +12686,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>390.0012234934007</v>
+        <v>493.3441707408114</v>
       </c>
       <c r="AB3" t="n">
-        <v>533.6168796233393</v>
+        <v>675.0152592163088</v>
       </c>
       <c r="AC3" t="n">
-        <v>482.6892335680814</v>
+        <v>610.59275026657</v>
       </c>
       <c r="AD3" t="n">
-        <v>390001.2234934007</v>
+        <v>493344.1707408114</v>
       </c>
       <c r="AE3" t="n">
-        <v>533616.8796233393</v>
+        <v>675015.2592163088</v>
       </c>
       <c r="AF3" t="n">
         <v>1.016422253107701e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.34375</v>
       </c>
       <c r="AH3" t="n">
-        <v>482689.2335680813</v>
+        <v>610592.75026657</v>
       </c>
     </row>
     <row r="4">
@@ -12792,28 +12792,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>368.2052095054426</v>
+        <v>471.6154765605576</v>
       </c>
       <c r="AB4" t="n">
-        <v>503.7946117127422</v>
+        <v>645.2851012365531</v>
       </c>
       <c r="AC4" t="n">
-        <v>455.7131610510557</v>
+        <v>583.6999968378636</v>
       </c>
       <c r="AD4" t="n">
-        <v>368205.2095054426</v>
+        <v>471615.4765605576</v>
       </c>
       <c r="AE4" t="n">
-        <v>503794.6117127422</v>
+        <v>645285.1012365532</v>
       </c>
       <c r="AF4" t="n">
         <v>1.044367410818255e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.75130208333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>455713.1610510558</v>
+        <v>583699.9968378636</v>
       </c>
     </row>
   </sheetData>
@@ -22918,28 +22918,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>427.4328965771107</v>
+        <v>548.3763075878098</v>
       </c>
       <c r="AB2" t="n">
-        <v>584.8325461053399</v>
+        <v>750.3126566969011</v>
       </c>
       <c r="AC2" t="n">
-        <v>529.0169487226792</v>
+        <v>678.7038698121758</v>
       </c>
       <c r="AD2" t="n">
-        <v>427432.8965771107</v>
+        <v>548376.3075878099</v>
       </c>
       <c r="AE2" t="n">
-        <v>584832.5461053399</v>
+        <v>750312.6566969011</v>
       </c>
       <c r="AF2" t="n">
         <v>1.021240589727252e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.98046875</v>
       </c>
       <c r="AH2" t="n">
-        <v>529016.9487226792</v>
+        <v>678703.8698121757</v>
       </c>
     </row>
     <row r="3">
@@ -23024,28 +23024,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>362.203013877391</v>
+        <v>464.5013356638619</v>
       </c>
       <c r="AB3" t="n">
-        <v>495.5821428562595</v>
+        <v>635.5512198079484</v>
       </c>
       <c r="AC3" t="n">
-        <v>448.2844786959633</v>
+        <v>574.8951033912166</v>
       </c>
       <c r="AD3" t="n">
-        <v>362203.013877391</v>
+        <v>464501.3356638619</v>
       </c>
       <c r="AE3" t="n">
-        <v>495582.1428562595</v>
+        <v>635551.2198079485</v>
       </c>
       <c r="AF3" t="n">
         <v>1.148263877350339e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.21354166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>448284.4786959633</v>
+        <v>574895.1033912166</v>
       </c>
     </row>
   </sheetData>
@@ -23321,28 +23321,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>356.1966055203496</v>
+        <v>474.5912557535398</v>
       </c>
       <c r="AB2" t="n">
-        <v>487.3639099581203</v>
+        <v>649.3566936105043</v>
       </c>
       <c r="AC2" t="n">
-        <v>440.8505824112602</v>
+        <v>587.3830021501605</v>
       </c>
       <c r="AD2" t="n">
-        <v>356196.6055203496</v>
+        <v>474591.2557535399</v>
       </c>
       <c r="AE2" t="n">
-        <v>487363.9099581203</v>
+        <v>649356.6936105043</v>
       </c>
       <c r="AF2" t="n">
         <v>1.379548229018298e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>440850.5824112602</v>
+        <v>587383.0021501605</v>
       </c>
     </row>
   </sheetData>
@@ -23618,28 +23618,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>847.2031590956952</v>
+        <v>1020.235341910339</v>
       </c>
       <c r="AB2" t="n">
-        <v>1159.180738240247</v>
+        <v>1395.931004408392</v>
       </c>
       <c r="AC2" t="n">
-        <v>1048.550155502981</v>
+        <v>1262.705308549124</v>
       </c>
       <c r="AD2" t="n">
-        <v>847203.1590956952</v>
+        <v>1020235.341910339</v>
       </c>
       <c r="AE2" t="n">
-        <v>1159180.738240247</v>
+        <v>1395931.004408392</v>
       </c>
       <c r="AF2" t="n">
         <v>5.272544445253782e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1048550.155502981</v>
+        <v>1262705.308549124</v>
       </c>
     </row>
     <row r="3">
@@ -23724,28 +23724,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>541.2368390152777</v>
+        <v>666.2010112876159</v>
       </c>
       <c r="AB3" t="n">
-        <v>740.5441208248385</v>
+        <v>911.5256143580422</v>
       </c>
       <c r="AC3" t="n">
-        <v>669.8676292935166</v>
+        <v>824.5308890579447</v>
       </c>
       <c r="AD3" t="n">
-        <v>541236.8390152777</v>
+        <v>666201.0112876159</v>
       </c>
       <c r="AE3" t="n">
-        <v>740544.1208248385</v>
+        <v>911525.6143580421</v>
       </c>
       <c r="AF3" t="n">
         <v>7.209522494360214e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.13671875</v>
       </c>
       <c r="AH3" t="n">
-        <v>669867.6292935166</v>
+        <v>824530.8890579448</v>
       </c>
     </row>
     <row r="4">
@@ -23830,28 +23830,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>462.746756123029</v>
+        <v>578.1578130108544</v>
       </c>
       <c r="AB4" t="n">
-        <v>633.1505266735948</v>
+        <v>791.0610262840019</v>
       </c>
       <c r="AC4" t="n">
-        <v>572.7235290402114</v>
+        <v>715.5632721965795</v>
       </c>
       <c r="AD4" t="n">
-        <v>462746.756123029</v>
+        <v>578157.8130108544</v>
       </c>
       <c r="AE4" t="n">
-        <v>633150.5266735947</v>
+        <v>791061.0262840019</v>
       </c>
       <c r="AF4" t="n">
         <v>7.915497822404755e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.89713541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>572723.5290402113</v>
+        <v>715563.2721965795</v>
       </c>
     </row>
     <row r="5">
@@ -23936,28 +23936,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>428.5035454022592</v>
+        <v>543.8804368713039</v>
       </c>
       <c r="AB5" t="n">
-        <v>586.2974550616008</v>
+        <v>744.1612080387602</v>
       </c>
       <c r="AC5" t="n">
-        <v>530.3420488241671</v>
+        <v>673.1395067803553</v>
       </c>
       <c r="AD5" t="n">
-        <v>428503.5454022592</v>
+        <v>543880.4368713039</v>
       </c>
       <c r="AE5" t="n">
-        <v>586297.4550616008</v>
+        <v>744161.2080387601</v>
       </c>
       <c r="AF5" t="n">
         <v>8.269877393619542e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.9140625</v>
       </c>
       <c r="AH5" t="n">
-        <v>530342.0488241671</v>
+        <v>673139.5067803554</v>
       </c>
     </row>
     <row r="6">
@@ -24042,28 +24042,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>410.8175275544996</v>
+        <v>516.5408294424035</v>
       </c>
       <c r="AB6" t="n">
-        <v>562.0986651902559</v>
+        <v>706.7539510161837</v>
       </c>
       <c r="AC6" t="n">
-        <v>508.4527574949286</v>
+        <v>639.3023458665987</v>
       </c>
       <c r="AD6" t="n">
-        <v>410817.5275544996</v>
+        <v>516540.8294424035</v>
       </c>
       <c r="AE6" t="n">
-        <v>562098.665190256</v>
+        <v>706753.9510161837</v>
       </c>
       <c r="AF6" t="n">
         <v>8.507336760662914e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.30208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>508452.7574949286</v>
+        <v>639302.3458665987</v>
       </c>
     </row>
     <row r="7">
@@ -24148,28 +24148,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>406.6966210687351</v>
+        <v>512.419922956639</v>
       </c>
       <c r="AB7" t="n">
-        <v>556.4602591348697</v>
+        <v>701.1155449607975</v>
       </c>
       <c r="AC7" t="n">
-        <v>503.3524729999158</v>
+        <v>634.2020613715858</v>
       </c>
       <c r="AD7" t="n">
-        <v>406696.6210687351</v>
+        <v>512419.922956639</v>
       </c>
       <c r="AE7" t="n">
-        <v>556460.2591348697</v>
+        <v>701115.5449607975</v>
       </c>
       <c r="AF7" t="n">
         <v>8.550207502192433e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.19791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>503352.4729999158</v>
+        <v>634202.0613715858</v>
       </c>
     </row>
   </sheetData>
@@ -24445,28 +24445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1149.357278887544</v>
+        <v>1353.786018120921</v>
       </c>
       <c r="AB2" t="n">
-        <v>1572.601335038428</v>
+        <v>1852.309754816998</v>
       </c>
       <c r="AC2" t="n">
-        <v>1422.514470782196</v>
+        <v>1675.527911550332</v>
       </c>
       <c r="AD2" t="n">
-        <v>1149357.278887544</v>
+        <v>1353786.018120921</v>
       </c>
       <c r="AE2" t="n">
-        <v>1572601.335038428</v>
+        <v>1852309.754816998</v>
       </c>
       <c r="AF2" t="n">
         <v>4.041566051326993e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.52083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1422514.470782196</v>
+        <v>1675527.911550332</v>
       </c>
     </row>
     <row r="3">
@@ -24551,28 +24551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>647.4415329946177</v>
+        <v>783.6486508695715</v>
       </c>
       <c r="AB3" t="n">
-        <v>885.8580685477897</v>
+        <v>1072.222656258246</v>
       </c>
       <c r="AC3" t="n">
-        <v>801.3130177951961</v>
+        <v>969.8912308189075</v>
       </c>
       <c r="AD3" t="n">
-        <v>647441.5329946177</v>
+        <v>783648.6508695715</v>
       </c>
       <c r="AE3" t="n">
-        <v>885858.0685477897</v>
+        <v>1072222.656258246</v>
       </c>
       <c r="AF3" t="n">
         <v>6.023736990796508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.1875</v>
       </c>
       <c r="AH3" t="n">
-        <v>801313.017795196</v>
+        <v>969891.2308189075</v>
       </c>
     </row>
     <row r="4">
@@ -24657,28 +24657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>548.5709824655908</v>
+        <v>665.3396081734055</v>
       </c>
       <c r="AB4" t="n">
-        <v>750.5790194531305</v>
+        <v>910.3470046147563</v>
       </c>
       <c r="AC4" t="n">
-        <v>678.944811280793</v>
+        <v>823.464764174369</v>
       </c>
       <c r="AD4" t="n">
-        <v>548570.9824655908</v>
+        <v>665339.6081734055</v>
       </c>
       <c r="AE4" t="n">
-        <v>750579.0194531305</v>
+        <v>910347.0046147563</v>
       </c>
       <c r="AF4" t="n">
         <v>6.755480044466155e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.24479166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>678944.811280793</v>
+        <v>823464.7641743689</v>
       </c>
     </row>
     <row r="5">
@@ -24763,28 +24763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>496.791295649203</v>
+        <v>613.5930757459414</v>
       </c>
       <c r="AB5" t="n">
-        <v>679.7317675923882</v>
+        <v>839.5451160516078</v>
       </c>
       <c r="AC5" t="n">
-        <v>614.8591217028976</v>
+        <v>759.4201084846126</v>
       </c>
       <c r="AD5" t="n">
-        <v>496791.295649203</v>
+        <v>613593.0757459414</v>
       </c>
       <c r="AE5" t="n">
-        <v>679731.7675923882</v>
+        <v>839545.1160516078</v>
       </c>
       <c r="AF5" t="n">
         <v>7.152920410501921e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.89713541666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>614859.1217028976</v>
+        <v>759420.1084846125</v>
       </c>
     </row>
     <row r="6">
@@ -24869,28 +24869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>476.2279248205004</v>
+        <v>583.260221735355</v>
       </c>
       <c r="AB6" t="n">
-        <v>651.5960564326627</v>
+        <v>798.0423670032496</v>
       </c>
       <c r="AC6" t="n">
-        <v>589.4086433275377</v>
+        <v>721.8783235559554</v>
       </c>
       <c r="AD6" t="n">
-        <v>476227.9248205004</v>
+        <v>583260.221735355</v>
       </c>
       <c r="AE6" t="n">
-        <v>651596.0564326628</v>
+        <v>798042.3670032496</v>
       </c>
       <c r="AF6" t="n">
         <v>7.401697956077473e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>23</v>
+        <v>22.12239583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>589408.6433275377</v>
+        <v>721878.3235559554</v>
       </c>
     </row>
     <row r="7">
@@ -24975,28 +24975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>451.8249636269857</v>
+        <v>558.9245803495448</v>
       </c>
       <c r="AB7" t="n">
-        <v>618.2068483450296</v>
+        <v>764.745268846458</v>
       </c>
       <c r="AC7" t="n">
-        <v>559.2060543977404</v>
+        <v>691.7590537144772</v>
       </c>
       <c r="AD7" t="n">
-        <v>451824.9636269857</v>
+        <v>558924.5803495449</v>
       </c>
       <c r="AE7" t="n">
-        <v>618206.8483450296</v>
+        <v>764745.2688464579</v>
       </c>
       <c r="AF7" t="n">
         <v>7.566208082272024e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.64713541666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>559206.0543977404</v>
+        <v>691759.0537144772</v>
       </c>
     </row>
     <row r="8">
@@ -25081,28 +25081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>438.5778784063169</v>
+        <v>545.5760099023909</v>
       </c>
       <c r="AB8" t="n">
-        <v>600.0816019259569</v>
+        <v>746.481165863296</v>
       </c>
       <c r="AC8" t="n">
-        <v>542.8106560579608</v>
+        <v>675.2380510861987</v>
       </c>
       <c r="AD8" t="n">
-        <v>438577.8784063169</v>
+        <v>545576.0099023909</v>
       </c>
       <c r="AE8" t="n">
-        <v>600081.6019259569</v>
+        <v>746481.165863296</v>
       </c>
       <c r="AF8" t="n">
         <v>7.697262785249642e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>22</v>
+        <v>21.27604166666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>542810.6560579608</v>
+        <v>675238.0510861987</v>
       </c>
     </row>
     <row r="9">
@@ -25187,28 +25187,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>430.8732456036844</v>
+        <v>528.20337914436</v>
       </c>
       <c r="AB9" t="n">
-        <v>589.5397834209851</v>
+        <v>722.711166033781</v>
       </c>
       <c r="AC9" t="n">
-        <v>533.2749339155685</v>
+        <v>653.7366266790084</v>
       </c>
       <c r="AD9" t="n">
-        <v>430873.2456036845</v>
+        <v>528203.3791443601</v>
       </c>
       <c r="AE9" t="n">
-        <v>589539.7834209851</v>
+        <v>722711.1660337809</v>
       </c>
       <c r="AF9" t="n">
         <v>7.768701433321893e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>22</v>
+        <v>21.08072916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>533274.9339155684</v>
+        <v>653736.6266790084</v>
       </c>
     </row>
     <row r="10">
@@ -25293,28 +25293,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>431.6782741898258</v>
+        <v>529.0084077305015</v>
       </c>
       <c r="AB10" t="n">
-        <v>590.6412590478984</v>
+        <v>723.8126416606941</v>
       </c>
       <c r="AC10" t="n">
-        <v>534.2712862545799</v>
+        <v>654.7329790180196</v>
       </c>
       <c r="AD10" t="n">
-        <v>431678.2741898258</v>
+        <v>529008.4077305015</v>
       </c>
       <c r="AE10" t="n">
-        <v>590641.2590478985</v>
+        <v>723812.6416606941</v>
       </c>
       <c r="AF10" t="n">
         <v>7.76417363168351e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>21.09375</v>
       </c>
       <c r="AH10" t="n">
-        <v>534271.2862545799</v>
+        <v>654732.9790180196</v>
       </c>
     </row>
   </sheetData>
@@ -25590,28 +25590,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>365.8308961334837</v>
+        <v>492.212101723023</v>
       </c>
       <c r="AB2" t="n">
-        <v>500.5459714099147</v>
+        <v>673.4663124428106</v>
       </c>
       <c r="AC2" t="n">
-        <v>452.7745664192348</v>
+        <v>609.191632799174</v>
       </c>
       <c r="AD2" t="n">
-        <v>365830.8961334837</v>
+        <v>492212.101723023</v>
       </c>
       <c r="AE2" t="n">
-        <v>500545.9714099147</v>
+        <v>673466.3124428106</v>
       </c>
       <c r="AF2" t="n">
         <v>1.472960453473079e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.97265625</v>
       </c>
       <c r="AH2" t="n">
-        <v>452774.5664192348</v>
+        <v>609191.6327991741</v>
       </c>
     </row>
   </sheetData>
@@ -25887,28 +25887,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>572.1123888982478</v>
+        <v>704.2485791377467</v>
       </c>
       <c r="AB2" t="n">
-        <v>782.7894103078446</v>
+        <v>963.5839752308194</v>
       </c>
       <c r="AC2" t="n">
-        <v>708.0810876399007</v>
+        <v>871.6208730333925</v>
       </c>
       <c r="AD2" t="n">
-        <v>572112.3888982477</v>
+        <v>704248.5791377467</v>
       </c>
       <c r="AE2" t="n">
-        <v>782789.4103078446</v>
+        <v>963583.9752308194</v>
       </c>
       <c r="AF2" t="n">
         <v>7.670185798435762e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.23567708333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>708081.0876399007</v>
+        <v>871620.8730333925</v>
       </c>
     </row>
     <row r="3">
@@ -25993,28 +25993,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>410.7834034150472</v>
+        <v>524.0665323224407</v>
       </c>
       <c r="AB3" t="n">
-        <v>562.0519750372064</v>
+        <v>717.0509497072297</v>
       </c>
       <c r="AC3" t="n">
-        <v>508.410523384556</v>
+        <v>648.6166134544995</v>
       </c>
       <c r="AD3" t="n">
-        <v>410783.4034150472</v>
+        <v>524066.5323224408</v>
       </c>
       <c r="AE3" t="n">
-        <v>562051.9750372064</v>
+        <v>717050.9497072297</v>
       </c>
       <c r="AF3" t="n">
         <v>9.502979273325487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.79296875</v>
       </c>
       <c r="AH3" t="n">
-        <v>508410.523384556</v>
+        <v>648616.6134544995</v>
       </c>
     </row>
     <row r="4">
@@ -26099,28 +26099,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>375.3784981475912</v>
+        <v>479.2526846132511</v>
       </c>
       <c r="AB4" t="n">
-        <v>513.6094216960901</v>
+        <v>655.7346662240885</v>
       </c>
       <c r="AC4" t="n">
-        <v>464.5912593447652</v>
+        <v>593.152270009045</v>
       </c>
       <c r="AD4" t="n">
-        <v>375378.4981475912</v>
+        <v>479252.6846132511</v>
       </c>
       <c r="AE4" t="n">
-        <v>513609.42169609</v>
+        <v>655734.6662240885</v>
       </c>
       <c r="AF4" t="n">
         <v>1.002530378876874e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.60807291666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>464591.2593447652</v>
+        <v>593152.270009045</v>
       </c>
     </row>
     <row r="5">
@@ -26205,28 +26205,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>375.1999673841397</v>
+        <v>479.0741538497995</v>
       </c>
       <c r="AB5" t="n">
-        <v>513.3651480293141</v>
+        <v>655.4903925573126</v>
       </c>
       <c r="AC5" t="n">
-        <v>464.3702988139062</v>
+        <v>592.931309478186</v>
       </c>
       <c r="AD5" t="n">
-        <v>375199.9673841397</v>
+        <v>479074.1538497995</v>
       </c>
       <c r="AE5" t="n">
-        <v>513365.1480293141</v>
+        <v>655490.3925573126</v>
       </c>
       <c r="AF5" t="n">
         <v>1.004027487360628e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.57552083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>464370.2988139061</v>
+        <v>592931.309478186</v>
       </c>
     </row>
   </sheetData>
@@ -26502,28 +26502,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>721.7606936925537</v>
+        <v>884.1264779900692</v>
       </c>
       <c r="AB2" t="n">
-        <v>987.5448229446743</v>
+        <v>1209.700852093394</v>
       </c>
       <c r="AC2" t="n">
-        <v>893.2949310706981</v>
+        <v>1094.248700595409</v>
       </c>
       <c r="AD2" t="n">
-        <v>721760.6936925537</v>
+        <v>884126.4779900692</v>
       </c>
       <c r="AE2" t="n">
-        <v>987544.8229446743</v>
+        <v>1209700.852093394</v>
       </c>
       <c r="AF2" t="n">
         <v>6.079744284961224e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.72526041666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>893294.9310706981</v>
+        <v>1094248.700595409</v>
       </c>
     </row>
     <row r="3">
@@ -26608,28 +26608,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>491.6278308865461</v>
+        <v>606.2198864683079</v>
       </c>
       <c r="AB3" t="n">
-        <v>672.6668873081328</v>
+        <v>829.4567931997963</v>
       </c>
       <c r="AC3" t="n">
-        <v>608.4685036773496</v>
+        <v>750.2946010067277</v>
       </c>
       <c r="AD3" t="n">
-        <v>491627.8308865461</v>
+        <v>606219.8864683079</v>
       </c>
       <c r="AE3" t="n">
-        <v>672666.8873081328</v>
+        <v>829456.7931997962</v>
       </c>
       <c r="AF3" t="n">
         <v>7.961464096785698e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.22526041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>608468.5036773497</v>
+        <v>750294.6010067277</v>
       </c>
     </row>
     <row r="4">
@@ -26714,28 +26714,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>431.4398554437321</v>
+        <v>536.4769630763718</v>
       </c>
       <c r="AB4" t="n">
-        <v>590.3150440012004</v>
+        <v>734.0314485743216</v>
       </c>
       <c r="AC4" t="n">
-        <v>533.9762047140928</v>
+        <v>663.9765173419961</v>
       </c>
       <c r="AD4" t="n">
-        <v>431439.8554437321</v>
+        <v>536476.9630763718</v>
       </c>
       <c r="AE4" t="n">
-        <v>590315.0440012004</v>
+        <v>734031.4485743217</v>
       </c>
       <c r="AF4" t="n">
         <v>8.636300011668594e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.33072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>533976.2047140928</v>
+        <v>663976.5173419961</v>
       </c>
     </row>
     <row r="5">
@@ -26820,28 +26820,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>399.0652047747129</v>
+        <v>504.0681469885718</v>
       </c>
       <c r="AB5" t="n">
-        <v>546.0186186870629</v>
+        <v>689.6882766269364</v>
       </c>
       <c r="AC5" t="n">
-        <v>493.9073680615133</v>
+        <v>623.8653954892366</v>
       </c>
       <c r="AD5" t="n">
-        <v>399065.2047747129</v>
+        <v>504068.1469885717</v>
       </c>
       <c r="AE5" t="n">
-        <v>546018.618687063</v>
+        <v>689688.2766269364</v>
       </c>
       <c r="AF5" t="n">
         <v>8.990899919532874e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.45182291666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>493907.3680615133</v>
+        <v>623865.3954892366</v>
       </c>
     </row>
     <row r="6">
@@ -26926,28 +26926,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>393.6493258611663</v>
+        <v>498.6522680750253</v>
       </c>
       <c r="AB6" t="n">
-        <v>538.6083742258339</v>
+        <v>682.2780321657075</v>
       </c>
       <c r="AC6" t="n">
-        <v>487.2043469313206</v>
+        <v>617.1623743590441</v>
       </c>
       <c r="AD6" t="n">
-        <v>393649.3258611663</v>
+        <v>498652.2680750253</v>
       </c>
       <c r="AE6" t="n">
-        <v>538608.3742258339</v>
+        <v>682278.0321657074</v>
       </c>
       <c r="AF6" t="n">
         <v>9.070292380107331e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.26302083333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>487204.3469313206</v>
+        <v>617162.374359044</v>
       </c>
     </row>
   </sheetData>
